--- a/yieldFiles/A1/a1_det10.xlsx
+++ b/yieldFiles/A1/a1_det10.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C607"/>
+  <dimension ref="A1:C739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2726,10 +2726,10 @@
         <v>2.71393</v>
       </c>
       <c r="B215" t="n">
-        <v>9.241761779999999e-14</v>
+        <v>1.136164032e-13</v>
       </c>
       <c r="C215" t="n">
-        <v>6.24113568e-15</v>
+        <v>5.547373560000001e-15</v>
       </c>
     </row>
     <row r="216">
@@ -2737,10 +2737,10 @@
         <v>2.71393</v>
       </c>
       <c r="B216" t="n">
-        <v>1.136164032e-13</v>
+        <v>9.241761779999999e-14</v>
       </c>
       <c r="C216" t="n">
-        <v>5.547373560000001e-15</v>
+        <v>6.24113568e-15</v>
       </c>
     </row>
     <row r="217">
@@ -4090,10 +4090,10 @@
         <v>2.80191</v>
       </c>
       <c r="B339" t="n">
-        <v>3.51626184e-14</v>
+        <v>4.23466272e-14</v>
       </c>
       <c r="C339" t="n">
-        <v>3.56114988e-15</v>
+        <v>3.50472744e-15</v>
       </c>
     </row>
     <row r="340">
@@ -4101,10 +4101,10 @@
         <v>2.80191</v>
       </c>
       <c r="B340" t="n">
-        <v>4.23466272e-14</v>
+        <v>3.51626184e-14</v>
       </c>
       <c r="C340" t="n">
-        <v>3.50472744e-15</v>
+        <v>3.56114988e-15</v>
       </c>
     </row>
     <row r="341">
@@ -4450,2598 +4450,4050 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>2.86985</v>
+        <v>2.86983</v>
       </c>
       <c r="B372" t="n">
-        <v>8.794819799999998e-14</v>
+        <v>1.122502176e-13</v>
       </c>
       <c r="C372" t="n">
-        <v>6.89526432e-15</v>
+        <v>5.603555700000001e-15</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>2.87044</v>
+        <v>2.86985</v>
       </c>
       <c r="B373" t="n">
-        <v>7.5984462e-14</v>
+        <v>8.794819799999998e-14</v>
       </c>
       <c r="C373" t="n">
-        <v>7.383137400000001e-15</v>
+        <v>6.89526432e-15</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>2.87098</v>
+        <v>2.87044</v>
       </c>
       <c r="B374" t="n">
-        <v>1.474724304e-13</v>
+        <v>7.5984462e-14</v>
       </c>
       <c r="C374" t="n">
-        <v>6.3580176e-15</v>
+        <v>7.383137400000001e-15</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>2.8711</v>
+        <v>2.87079</v>
       </c>
       <c r="B375" t="n">
-        <v>1.073695644e-13</v>
+        <v>1.64858616e-13</v>
       </c>
       <c r="C375" t="n">
-        <v>7.775611379999999e-15</v>
+        <v>1.354798584e-14</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>2.87156</v>
+        <v>2.87098</v>
       </c>
       <c r="B376" t="n">
-        <v>1.368386748e-13</v>
+        <v>1.474724304e-13</v>
       </c>
       <c r="C376" t="n">
-        <v>7.537281839999999e-15</v>
+        <v>6.3580176e-15</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>2.87192</v>
+        <v>2.8711</v>
       </c>
       <c r="B377" t="n">
-        <v>1.77721074e-13</v>
+        <v>1.073695644e-13</v>
       </c>
       <c r="C377" t="n">
-        <v>9.08079282e-15</v>
+        <v>7.775611379999999e-15</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>2.87203</v>
+        <v>2.87156</v>
       </c>
       <c r="B378" t="n">
-        <v>1.60922502e-13</v>
+        <v>1.368386748e-13</v>
       </c>
       <c r="C378" t="n">
-        <v>8.90596656e-15</v>
+        <v>7.537281839999999e-15</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>2.87225</v>
+        <v>2.87192</v>
       </c>
       <c r="B379" t="n">
-        <v>1.7138997e-13</v>
+        <v>1.77721074e-13</v>
       </c>
       <c r="C379" t="n">
-        <v>9.949941900000001e-15</v>
+        <v>9.08079282e-15</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>2.8725</v>
+        <v>2.87192</v>
       </c>
       <c r="B380" t="n">
-        <v>1.7623602e-13</v>
+        <v>1.7487432e-13</v>
       </c>
       <c r="C380" t="n">
-        <v>1.080323118e-14</v>
+        <v>1.308685014e-14</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>2.87281</v>
+        <v>2.87203</v>
       </c>
       <c r="B381" t="n">
-        <v>1.47833361e-13</v>
+        <v>1.60922502e-13</v>
       </c>
       <c r="C381" t="n">
-        <v>1.27498374e-14</v>
+        <v>8.90596656e-15</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>2.87297</v>
+        <v>2.87225</v>
       </c>
       <c r="B382" t="n">
-        <v>1.65621168e-13</v>
+        <v>1.7138997e-13</v>
       </c>
       <c r="C382" t="n">
-        <v>7.890683039999999e-15</v>
+        <v>9.949941900000001e-15</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>2.87318</v>
+        <v>2.8725</v>
       </c>
       <c r="B383" t="n">
-        <v>1.65384072e-13</v>
+        <v>1.7623602e-13</v>
       </c>
       <c r="C383" t="n">
-        <v>1.039110066e-14</v>
+        <v>1.080323118e-14</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>2.87337</v>
+        <v>2.87281</v>
       </c>
       <c r="B384" t="n">
-        <v>1.55760858e-13</v>
+        <v>1.47833361e-13</v>
       </c>
       <c r="C384" t="n">
-        <v>9.722169540000001e-15</v>
+        <v>1.27498374e-14</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>2.87386</v>
+        <v>2.87297</v>
       </c>
       <c r="B385" t="n">
-        <v>1.056081654e-13</v>
+        <v>1.65621168e-13</v>
       </c>
       <c r="C385" t="n">
-        <v>6.38305686e-15</v>
+        <v>7.890683039999999e-15</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>2.87584</v>
+        <v>2.87318</v>
       </c>
       <c r="B386" t="n">
-        <v>8.02629234e-14</v>
+        <v>1.65384072e-13</v>
       </c>
       <c r="C386" t="n">
-        <v>4.60217754e-15</v>
+        <v>1.039110066e-14</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>2.87602</v>
+        <v>2.87337</v>
       </c>
       <c r="B387" t="n">
-        <v>8.8743591e-14</v>
+        <v>1.55760858e-13</v>
       </c>
       <c r="C387" t="n">
-        <v>3.56866326e-15</v>
+        <v>9.722169540000001e-15</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>2.87699</v>
+        <v>2.87386</v>
       </c>
       <c r="B388" t="n">
-        <v>7.57154862e-14</v>
+        <v>1.056081654e-13</v>
       </c>
       <c r="C388" t="n">
-        <v>5.37076908e-15</v>
+        <v>6.38305686e-15</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>2.87795</v>
+        <v>2.87412</v>
       </c>
       <c r="B389" t="n">
-        <v>7.64689068e-14</v>
+        <v>1.054514898e-13</v>
       </c>
       <c r="C389" t="n">
-        <v>5.96479068e-15</v>
+        <v>1.165754574e-14</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.87584</v>
       </c>
       <c r="B390" t="n">
-        <v>9.0994401e-14</v>
+        <v>8.02629234e-14</v>
       </c>
       <c r="C390" t="n">
-        <v>5.251163760000001e-15</v>
+        <v>4.60217754e-15</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.87591</v>
       </c>
       <c r="B391" t="n">
-        <v>9.593272620000001e-14</v>
+        <v>1.071398376e-13</v>
       </c>
       <c r="C391" t="n">
-        <v>8.1452889e-15</v>
+        <v>1.154718396e-14</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>2.87999</v>
+        <v>2.87602</v>
       </c>
       <c r="B392" t="n">
-        <v>8.442379800000001e-14</v>
+        <v>8.8743591e-14</v>
       </c>
       <c r="C392" t="n">
-        <v>5.23858806e-15</v>
+        <v>3.56866326e-15</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>2.90444</v>
+        <v>2.87699</v>
       </c>
       <c r="B393" t="n">
-        <v>9.18588402e-14</v>
+        <v>7.57154862e-14</v>
       </c>
       <c r="C393" t="n">
-        <v>5.464630260000001e-15</v>
+        <v>5.37076908e-15</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>2.90481</v>
+        <v>2.87795</v>
       </c>
       <c r="B394" t="n">
-        <v>1.373604462e-13</v>
+        <v>7.64689068e-14</v>
       </c>
       <c r="C394" t="n">
-        <v>7.35495822e-15</v>
+        <v>5.96479068e-15</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>2.90576</v>
+        <v>2.87802</v>
       </c>
       <c r="B395" t="n">
-        <v>7.56012636e-13</v>
+        <v>1.153909386e-13</v>
       </c>
       <c r="C395" t="n">
-        <v>2.6714952e-14</v>
+        <v>8.1554616e-15</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.8788</v>
       </c>
       <c r="B396" t="n">
-        <v>1.166065362e-12</v>
+        <v>1.008614394e-13</v>
       </c>
       <c r="C396" t="n">
-        <v>2.71040778e-14</v>
+        <v>1.122795342e-14</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.87894</v>
       </c>
       <c r="B397" t="n">
-        <v>1.084260834e-12</v>
+        <v>9.593272620000001e-14</v>
       </c>
       <c r="C397" t="n">
-        <v>1.89920304e-14</v>
+        <v>8.1452889e-15</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>2.90644</v>
+        <v>2.87894</v>
       </c>
       <c r="B398" t="n">
-        <v>5.8632399e-13</v>
+        <v>9.0994401e-14</v>
       </c>
       <c r="C398" t="n">
-        <v>2.4524217e-14</v>
+        <v>5.251163760000001e-15</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>2.90675</v>
+        <v>2.87999</v>
       </c>
       <c r="B399" t="n">
-        <v>1.12910562e-12</v>
+        <v>8.442379800000001e-14</v>
       </c>
       <c r="C399" t="n">
-        <v>2.6852724e-14</v>
+        <v>5.23858806e-15</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>2.90706</v>
+        <v>2.90444</v>
       </c>
       <c r="B400" t="n">
-        <v>7.21952514e-13</v>
+        <v>9.18588402e-14</v>
       </c>
       <c r="C400" t="n">
-        <v>2.7918855e-14</v>
+        <v>5.464630260000001e-15</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>2.90739</v>
+        <v>2.90481</v>
       </c>
       <c r="B401" t="n">
-        <v>2.833938e-13</v>
+        <v>1.373604462e-13</v>
       </c>
       <c r="C401" t="n">
-        <v>1.35638136e-14</v>
+        <v>7.35495822e-15</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>2.90788</v>
+        <v>2.90576</v>
       </c>
       <c r="B402" t="n">
-        <v>1.81529028e-13</v>
+        <v>7.56012636e-13</v>
       </c>
       <c r="C402" t="n">
-        <v>6.353532e-15</v>
+        <v>2.6714952e-14</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>2.9085</v>
+        <v>2.90595</v>
       </c>
       <c r="B403" t="n">
-        <v>1.61359848e-13</v>
+        <v>1.166065362e-12</v>
       </c>
       <c r="C403" t="n">
-        <v>8.702512559999999e-15</v>
+        <v>2.71040778e-14</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>2.90904</v>
+        <v>2.90595</v>
       </c>
       <c r="B404" t="n">
-        <v>1.090186632e-13</v>
+        <v>1.084260834e-12</v>
       </c>
       <c r="C404" t="n">
-        <v>4.80454218e-15</v>
+        <v>1.89920304e-14</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>2.90949</v>
+        <v>2.90644</v>
       </c>
       <c r="B405" t="n">
-        <v>8.36493912e-14</v>
+        <v>5.8632399e-13</v>
       </c>
       <c r="C405" t="n">
-        <v>4.01598972e-15</v>
+        <v>2.4524217e-14</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>2.91001</v>
+        <v>2.90675</v>
       </c>
       <c r="B406" t="n">
-        <v>7.20022104e-14</v>
+        <v>1.12910562e-12</v>
       </c>
       <c r="C406" t="n">
-        <v>4.13394498e-15</v>
+        <v>2.6852724e-14</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>2.91027</v>
+        <v>2.90706</v>
       </c>
       <c r="B407" t="n">
-        <v>6.56597322e-14</v>
+        <v>7.21952514e-13</v>
       </c>
       <c r="C407" t="n">
-        <v>3.95900658e-15</v>
+        <v>2.7918855e-14</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>2.9115</v>
+        <v>2.90739</v>
       </c>
       <c r="B408" t="n">
-        <v>4.7232567e-14</v>
+        <v>2.833938e-13</v>
       </c>
       <c r="C408" t="n">
-        <v>3.350566980000001e-15</v>
+        <v>1.35638136e-14</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>2.91247</v>
+        <v>2.90788</v>
       </c>
       <c r="B409" t="n">
-        <v>4.27796478e-14</v>
+        <v>1.81529028e-13</v>
       </c>
       <c r="C409" t="n">
-        <v>3.27029076e-15</v>
+        <v>6.353532e-15</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>2.91341</v>
+        <v>2.9085</v>
       </c>
       <c r="B410" t="n">
-        <v>3.25705824e-14</v>
+        <v>1.61359848e-13</v>
       </c>
       <c r="C410" t="n">
-        <v>2.97493002e-15</v>
+        <v>8.702512559999999e-15</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>2.91393</v>
+        <v>2.90904</v>
       </c>
       <c r="B411" t="n">
-        <v>3.54695616e-14</v>
+        <v>1.090186632e-13</v>
       </c>
       <c r="C411" t="n">
-        <v>2.81314404e-15</v>
+        <v>4.80454218e-15</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>2.91445</v>
+        <v>2.90949</v>
       </c>
       <c r="B412" t="n">
-        <v>5.594984999999999e-14</v>
+        <v>8.36493912e-14</v>
       </c>
       <c r="C412" t="n">
-        <v>4.8663954e-15</v>
+        <v>4.01598972e-15</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>2.91504</v>
+        <v>2.91001</v>
       </c>
       <c r="B413" t="n">
-        <v>1.541184876e-13</v>
+        <v>7.20022104e-14</v>
       </c>
       <c r="C413" t="n">
-        <v>6.9952131e-15</v>
+        <v>4.13394498e-15</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>2.91537</v>
+        <v>2.91027</v>
       </c>
       <c r="B414" t="n">
-        <v>4.89116232e-13</v>
+        <v>6.56597322e-14</v>
       </c>
       <c r="C414" t="n">
-        <v>1.51875207e-14</v>
+        <v>3.95900658e-15</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>2.91549</v>
+        <v>2.9115</v>
       </c>
       <c r="B415" t="n">
-        <v>5.605894619999999e-13</v>
+        <v>4.7232567e-14</v>
       </c>
       <c r="C415" t="n">
-        <v>1.240465446e-14</v>
+        <v>3.350566980000001e-15</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>2.91566</v>
+        <v>2.91247</v>
       </c>
       <c r="B416" t="n">
-        <v>4.2836679e-13</v>
+        <v>4.27796478e-14</v>
       </c>
       <c r="C416" t="n">
-        <v>1.63271034e-14</v>
+        <v>3.27029076e-15</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>2.91585</v>
+        <v>2.91341</v>
       </c>
       <c r="B417" t="n">
-        <v>3.0972267e-13</v>
+        <v>3.25705824e-14</v>
       </c>
       <c r="C417" t="n">
-        <v>1.157344074e-14</v>
+        <v>2.97493002e-15</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>2.91604</v>
+        <v>2.91393</v>
       </c>
       <c r="B418" t="n">
-        <v>1.75686534e-13</v>
+        <v>3.54695616e-14</v>
       </c>
       <c r="C418" t="n">
-        <v>8.311304160000002e-15</v>
+        <v>2.81314404e-15</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>2.91648</v>
+        <v>2.91445</v>
       </c>
       <c r="B419" t="n">
-        <v>9.14636268e-14</v>
+        <v>5.594984999999999e-14</v>
       </c>
       <c r="C419" t="n">
-        <v>4.7214144e-15</v>
+        <v>4.8663954e-15</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>2.91693</v>
+        <v>2.91504</v>
       </c>
       <c r="B420" t="n">
-        <v>8.389449720000001e-14</v>
+        <v>1.541184876e-13</v>
       </c>
       <c r="C420" t="n">
-        <v>4.47858324e-15</v>
+        <v>6.9952131e-15</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>2.91745</v>
+        <v>2.91537</v>
       </c>
       <c r="B421" t="n">
-        <v>5.34888576e-14</v>
+        <v>4.89116232e-13</v>
       </c>
       <c r="C421" t="n">
-        <v>2.59065828e-15</v>
+        <v>1.51875207e-14</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>2.91793</v>
+        <v>2.91549</v>
       </c>
       <c r="B422" t="n">
-        <v>3.5531559e-14</v>
+        <v>5.605894619999999e-13</v>
       </c>
       <c r="C422" t="n">
-        <v>2.9886912e-15</v>
+        <v>1.240465446e-14</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>2.9184</v>
+        <v>2.91566</v>
       </c>
       <c r="B423" t="n">
-        <v>3.63604338e-14</v>
+        <v>4.2836679e-13</v>
       </c>
       <c r="C423" t="n">
-        <v>2.11612986e-15</v>
+        <v>1.63271034e-14</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>2.91892</v>
+        <v>2.91585</v>
       </c>
       <c r="B424" t="n">
-        <v>3.3287958e-14</v>
+        <v>3.0972267e-13</v>
       </c>
       <c r="C424" t="n">
-        <v>2.17444266e-15</v>
+        <v>1.157344074e-14</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>2.91946</v>
+        <v>2.91604</v>
       </c>
       <c r="B425" t="n">
-        <v>3.7168002e-14</v>
+        <v>1.75686534e-13</v>
       </c>
       <c r="C425" t="n">
-        <v>2.34294102e-15</v>
+        <v>8.311304160000002e-15</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>2.91991</v>
+        <v>2.91648</v>
       </c>
       <c r="B426" t="n">
-        <v>2.9194848e-14</v>
+        <v>9.14636268e-14</v>
       </c>
       <c r="C426" t="n">
-        <v>2.4145344e-15</v>
+        <v>4.7214144e-15</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>2.92043</v>
+        <v>2.91693</v>
       </c>
       <c r="B427" t="n">
-        <v>2.8408266e-14</v>
+        <v>8.389449720000001e-14</v>
       </c>
       <c r="C427" t="n">
-        <v>2.07015246e-15</v>
+        <v>4.47858324e-15</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>2.92084</v>
+        <v>2.91745</v>
       </c>
       <c r="B428" t="n">
-        <v>2.91496716e-14</v>
+        <v>5.34888576e-14</v>
       </c>
       <c r="C428" t="n">
-        <v>2.82461436e-15</v>
+        <v>2.59065828e-15</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>2.92143</v>
+        <v>2.91793</v>
       </c>
       <c r="B429" t="n">
-        <v>2.59714638e-14</v>
+        <v>3.5531559e-14</v>
       </c>
       <c r="C429" t="n">
-        <v>2.24014068e-15</v>
+        <v>2.9886912e-15</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>2.9219</v>
+        <v>2.9184</v>
       </c>
       <c r="B430" t="n">
-        <v>2.66287644e-14</v>
+        <v>3.63604338e-14</v>
       </c>
       <c r="C430" t="n">
-        <v>2.3679162e-15</v>
+        <v>2.11612986e-15</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>2.92247</v>
+        <v>2.91892</v>
       </c>
       <c r="B431" t="n">
-        <v>2.50674552e-14</v>
+        <v>3.3287958e-14</v>
       </c>
       <c r="C431" t="n">
-        <v>2.70532944e-15</v>
+        <v>2.17444266e-15</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>2.92297</v>
+        <v>2.91946</v>
       </c>
       <c r="B432" t="n">
-        <v>2.6019684e-14</v>
+        <v>3.7168002e-14</v>
       </c>
       <c r="C432" t="n">
-        <v>2.89229886e-15</v>
+        <v>2.34294102e-15</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>2.92346</v>
+        <v>2.91991</v>
       </c>
       <c r="B433" t="n">
-        <v>2.3040765e-14</v>
+        <v>2.9194848e-14</v>
       </c>
       <c r="C433" t="n">
-        <v>2.60570106e-15</v>
+        <v>2.4145344e-15</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>2.92583</v>
+        <v>2.92043</v>
       </c>
       <c r="B434" t="n">
-        <v>2.51092674e-14</v>
+        <v>2.8408266e-14</v>
       </c>
       <c r="C434" t="n">
-        <v>2.27423124e-15</v>
+        <v>2.07015246e-15</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>2.92979</v>
+        <v>2.92084</v>
       </c>
       <c r="B435" t="n">
-        <v>2.42339346e-14</v>
+        <v>2.91496716e-14</v>
       </c>
       <c r="C435" t="n">
-        <v>2.47547448e-15</v>
+        <v>2.82461436e-15</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>2.93966</v>
+        <v>2.92143</v>
       </c>
       <c r="B436" t="n">
-        <v>3.32032122e-14</v>
+        <v>2.59714638e-14</v>
       </c>
       <c r="C436" t="n">
-        <v>2.5575129e-15</v>
+        <v>2.24014068e-15</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>2.95006</v>
+        <v>2.9219</v>
       </c>
       <c r="B437" t="n">
-        <v>7.424677259999999e-14</v>
+        <v>2.66287644e-14</v>
       </c>
       <c r="C437" t="n">
-        <v>3.56395338e-15</v>
+        <v>2.3679162e-15</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>2.9597</v>
+        <v>2.92247</v>
       </c>
       <c r="B438" t="n">
-        <v>7.026307920000001e-14</v>
+        <v>2.50674552e-14</v>
       </c>
       <c r="C438" t="n">
-        <v>3.15528318e-15</v>
+        <v>2.70532944e-15</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>2.96984</v>
+        <v>2.92297</v>
       </c>
       <c r="B439" t="n">
-        <v>5.53273128e-14</v>
+        <v>2.6019684e-14</v>
       </c>
       <c r="C439" t="n">
-        <v>2.98008846e-15</v>
+        <v>2.89229886e-15</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>2.97979</v>
+        <v>2.92346</v>
       </c>
       <c r="B440" t="n">
-        <v>6.30137088e-14</v>
+        <v>2.3040765e-14</v>
       </c>
       <c r="C440" t="n">
-        <v>3.35902554e-15</v>
+        <v>2.60570106e-15</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>2.98967</v>
+        <v>2.92583</v>
       </c>
       <c r="B441" t="n">
-        <v>7.621995600000001e-14</v>
+        <v>2.51092674e-14</v>
       </c>
       <c r="C441" t="n">
-        <v>3.54975966e-15</v>
+        <v>2.27423124e-15</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>2.99885</v>
+        <v>2.92979</v>
       </c>
       <c r="B442" t="n">
-        <v>1.095638238e-13</v>
+        <v>2.42339346e-14</v>
       </c>
       <c r="C442" t="n">
-        <v>7.0514433e-15</v>
+        <v>2.47547448e-15</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>2.99993</v>
+        <v>2.93966</v>
       </c>
       <c r="B443" t="n">
-        <v>1.347477444e-13</v>
+        <v>3.32032122e-14</v>
       </c>
       <c r="C443" t="n">
-        <v>5.9126616e-15</v>
+        <v>2.5575129e-15</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>3.00403</v>
+        <v>2.95006</v>
       </c>
       <c r="B444" t="n">
-        <v>1.95182874e-13</v>
+        <v>7.424677259999999e-14</v>
       </c>
       <c r="C444" t="n">
-        <v>6.8889204e-15</v>
+        <v>3.56395338e-15</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>3.00807</v>
+        <v>2.9597</v>
       </c>
       <c r="B445" t="n">
-        <v>2.73815442e-13</v>
+        <v>7.026307920000001e-14</v>
       </c>
       <c r="C445" t="n">
-        <v>8.946897660000001e-15</v>
+        <v>3.15528318e-15</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>3.01001</v>
+        <v>2.96984</v>
       </c>
       <c r="B446" t="n">
-        <v>3.63368844e-13</v>
+        <v>5.53273128e-14</v>
       </c>
       <c r="C446" t="n">
-        <v>7.81138404e-15</v>
+        <v>2.98008846e-15</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>3.01128</v>
+        <v>2.97074</v>
       </c>
       <c r="B447" t="n">
-        <v>4.438132740000001e-13</v>
+        <v>5.12164206e-14</v>
       </c>
       <c r="C447" t="n">
-        <v>1.23219432e-14</v>
+        <v>7.55093088e-15</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>3.01174</v>
+        <v>2.97979</v>
       </c>
       <c r="B448" t="n">
-        <v>5.01589404e-13</v>
+        <v>6.30137088e-14</v>
       </c>
       <c r="C448" t="n">
-        <v>1.24338429e-14</v>
+        <v>3.35902554e-15</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>3.01205</v>
+        <v>2.98023</v>
       </c>
       <c r="B449" t="n">
-        <v>5.11010766e-13</v>
+        <v>5.1636465e-14</v>
       </c>
       <c r="C449" t="n">
-        <v>1.307802312e-14</v>
+        <v>5.21905968e-15</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>3.01229</v>
+        <v>2.98967</v>
       </c>
       <c r="B450" t="n">
-        <v>5.73498378e-13</v>
+        <v>7.621995600000001e-14</v>
       </c>
       <c r="C450" t="n">
-        <v>1.147501386e-14</v>
+        <v>3.54975966e-15</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>3.01249</v>
+        <v>2.99092</v>
       </c>
       <c r="B451" t="n">
-        <v>5.847107760000001e-13</v>
+        <v>8.57523366e-14</v>
       </c>
       <c r="C451" t="n">
-        <v>1.412613162e-14</v>
+        <v>6.955980120000001e-15</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>3.01268</v>
+        <v>2.99494</v>
       </c>
       <c r="B452" t="n">
-        <v>5.874389820000001e-13</v>
+        <v>1.115943588e-13</v>
       </c>
       <c r="C452" t="n">
-        <v>1.192250052e-14</v>
+        <v>9.6703929e-15</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>3.01299</v>
+        <v>2.99885</v>
       </c>
       <c r="B453" t="n">
-        <v>6.19865064e-13</v>
+        <v>1.095638238e-13</v>
       </c>
       <c r="C453" t="n">
-        <v>1.343304234e-14</v>
+        <v>7.0514433e-15</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>3.01352</v>
+        <v>2.9989</v>
       </c>
       <c r="B454" t="n">
-        <v>6.464598660000001e-13</v>
+        <v>1.16402922e-13</v>
       </c>
       <c r="C454" t="n">
-        <v>1.294659504e-14</v>
+        <v>9.733896180000001e-15</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>3.01388</v>
+        <v>2.99991</v>
       </c>
       <c r="B455" t="n">
-        <v>5.8231899e-13</v>
+        <v>1.360238976e-13</v>
       </c>
       <c r="C455" t="n">
-        <v>1.261921032e-14</v>
+        <v>9.193253219999999e-15</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>3.01436</v>
+        <v>2.99993</v>
       </c>
       <c r="B456" t="n">
-        <v>5.42522106e-13</v>
+        <v>1.347477444e-13</v>
       </c>
       <c r="C456" t="n">
-        <v>1.204390008e-14</v>
+        <v>5.9126616e-15</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>3.01501</v>
+        <v>3.00139</v>
       </c>
       <c r="B457" t="n">
-        <v>4.73881212e-13</v>
+        <v>1.493717616e-13</v>
       </c>
       <c r="C457" t="n">
-        <v>1.25067339e-14</v>
+        <v>6.8885199e-15</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>3.01551</v>
+        <v>3.00252</v>
       </c>
       <c r="B458" t="n">
-        <v>3.89994084e-13</v>
+        <v>1.594920762e-13</v>
       </c>
       <c r="C458" t="n">
-        <v>9.30654666e-15</v>
+        <v>8.02683702e-15</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>3.01607</v>
+        <v>3.00336</v>
       </c>
       <c r="B459" t="n">
-        <v>3.51820026e-13</v>
+        <v>1.93998996e-13</v>
       </c>
       <c r="C459" t="n">
-        <v>8.222889780000001e-15</v>
+        <v>1.150216776e-14</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>3.0165</v>
+        <v>3.00403</v>
       </c>
       <c r="B460" t="n">
-        <v>3.21835392e-13</v>
+        <v>1.95182874e-13</v>
       </c>
       <c r="C460" t="n">
-        <v>9.933937919999999e-15</v>
+        <v>6.8889204e-15</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>3.01703</v>
+        <v>3.00434</v>
       </c>
       <c r="B461" t="n">
-        <v>2.65906368e-13</v>
+        <v>1.76654142e-13</v>
       </c>
       <c r="C461" t="n">
-        <v>7.48105164e-15</v>
+        <v>1.159021368e-14</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>3.01753</v>
+        <v>3.0055</v>
       </c>
       <c r="B462" t="n">
-        <v>2.548541700000001e-13</v>
+        <v>2.287303559999999e-13</v>
       </c>
       <c r="C462" t="n">
-        <v>6.562384740000001e-15</v>
+        <v>7.43313582e-15</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>3.01809</v>
+        <v>3.00638</v>
       </c>
       <c r="B463" t="n">
-        <v>2.15734932e-13</v>
+        <v>2.17758258e-13</v>
       </c>
       <c r="C463" t="n">
-        <v>6.68484162e-15</v>
+        <v>7.437301019999999e-15</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>3.01857</v>
+        <v>3.00754</v>
       </c>
       <c r="B464" t="n">
-        <v>1.95254964e-13</v>
+        <v>2.582135640000001e-13</v>
       </c>
       <c r="C464" t="n">
-        <v>8.0227359e-15</v>
+        <v>7.41923046e-15</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>3.01898</v>
+        <v>3.00807</v>
       </c>
       <c r="B465" t="n">
-        <v>1.8060147e-13</v>
+        <v>2.73815442e-13</v>
       </c>
       <c r="C465" t="n">
-        <v>7.293377339999999e-15</v>
+        <v>8.946897660000001e-15</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>3.02004</v>
+        <v>3.00843</v>
       </c>
       <c r="B466" t="n">
-        <v>1.53057483e-13</v>
+        <v>3.05802576e-13</v>
       </c>
       <c r="C466" t="n">
-        <v>7.944029640000001e-15</v>
+        <v>8.956141199999999e-15</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>3.02218</v>
+        <v>3.00955</v>
       </c>
       <c r="B467" t="n">
-        <v>1.159682994e-13</v>
+        <v>3.43385496e-13</v>
       </c>
       <c r="C467" t="n">
-        <v>7.429563359999999e-15</v>
+        <v>1.040649588e-14</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>3.02586</v>
+        <v>3.01001</v>
       </c>
       <c r="B468" t="n">
-        <v>1.08330444e-13</v>
+        <v>3.63368844e-13</v>
       </c>
       <c r="C468" t="n">
-        <v>6.957774360000002e-15</v>
+        <v>7.81138404e-15</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>3.02991</v>
+        <v>3.01047</v>
       </c>
       <c r="B469" t="n">
-        <v>9.7091613e-14</v>
+        <v>4.170807e-13</v>
       </c>
       <c r="C469" t="n">
-        <v>6.453560880000001e-15</v>
+        <v>9.394288199999999e-15</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>3.03203</v>
+        <v>3.01128</v>
       </c>
       <c r="B470" t="n">
-        <v>1.12731939e-13</v>
+        <v>4.438132740000001e-13</v>
       </c>
       <c r="C470" t="n">
-        <v>5.2915662e-15</v>
+        <v>1.23219432e-14</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>3.033</v>
+        <v>3.01174</v>
       </c>
       <c r="B471" t="n">
-        <v>9.58934772e-14</v>
+        <v>5.01589404e-13</v>
       </c>
       <c r="C471" t="n">
-        <v>6.4289061e-15</v>
+        <v>1.24338429e-14</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>3.0336</v>
+        <v>3.01205</v>
       </c>
       <c r="B472" t="n">
-        <v>1.241367372e-13</v>
+        <v>5.11010766e-13</v>
       </c>
       <c r="C472" t="n">
-        <v>7.26245874e-15</v>
+        <v>1.307802312e-14</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>3.03399</v>
+        <v>3.01229</v>
       </c>
       <c r="B473" t="n">
-        <v>1.67548374e-13</v>
+        <v>5.73498378e-13</v>
       </c>
       <c r="C473" t="n">
-        <v>6.9920091e-15</v>
+        <v>1.147501386e-14</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>3.03432</v>
+        <v>3.01249</v>
       </c>
       <c r="B474" t="n">
-        <v>2.1919365e-13</v>
+        <v>5.847107760000001e-13</v>
       </c>
       <c r="C474" t="n">
-        <v>6.3459225e-15</v>
+        <v>1.412613162e-14</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>3.03452</v>
+        <v>3.01268</v>
       </c>
       <c r="B475" t="n">
-        <v>2.93848452e-13</v>
+        <v>5.874389820000001e-13</v>
       </c>
       <c r="C475" t="n">
-        <v>9.79882524e-15</v>
+        <v>1.192250052e-14</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>3.03483</v>
+        <v>3.01299</v>
       </c>
       <c r="B476" t="n">
-        <v>4.8648735e-13</v>
+        <v>6.19865064e-13</v>
       </c>
       <c r="C476" t="n">
-        <v>1.34812305e-14</v>
+        <v>1.343304234e-14</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>3.03505</v>
+        <v>3.01352</v>
       </c>
       <c r="B477" t="n">
-        <v>7.29733428e-13</v>
+        <v>6.464598660000001e-13</v>
       </c>
       <c r="C477" t="n">
-        <v>1.66797036e-14</v>
+        <v>1.294659504e-14</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>3.03594</v>
+        <v>3.01388</v>
       </c>
       <c r="B478" t="n">
-        <v>3.00395826e-13</v>
+        <v>5.8231899e-13</v>
       </c>
       <c r="C478" t="n">
-        <v>1.09766637e-14</v>
+        <v>1.261921032e-14</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>3.03698</v>
+        <v>3.01436</v>
       </c>
       <c r="B479" t="n">
-        <v>1.61218872e-13</v>
+        <v>5.42522106e-13</v>
       </c>
       <c r="C479" t="n">
-        <v>7.845586739999999e-15</v>
+        <v>1.204390008e-14</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>3.03799</v>
+        <v>3.01441</v>
       </c>
       <c r="B480" t="n">
-        <v>1.387511424e-13</v>
+        <v>4.02872562e-13</v>
       </c>
       <c r="C480" t="n">
-        <v>7.658184779999999e-15</v>
+        <v>1.299313314e-14</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>3.03898</v>
+        <v>3.01501</v>
       </c>
       <c r="B481" t="n">
-        <v>1.367302194e-13</v>
+        <v>4.73881212e-13</v>
       </c>
       <c r="C481" t="n">
-        <v>7.965480419999999e-15</v>
+        <v>1.25067339e-14</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>3.04002</v>
+        <v>3.01551</v>
       </c>
       <c r="B482" t="n">
-        <v>1.446171858e-13</v>
+        <v>3.89994084e-13</v>
       </c>
       <c r="C482" t="n">
-        <v>6.7931208e-15</v>
+        <v>9.30654666e-15</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>3.04202</v>
+        <v>3.01607</v>
       </c>
       <c r="B483" t="n">
-        <v>1.502015976e-13</v>
+        <v>3.51820026e-13</v>
       </c>
       <c r="C483" t="n">
-        <v>7.6422609e-15</v>
+        <v>8.222889780000001e-15</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>3.04591</v>
+        <v>3.0165</v>
       </c>
       <c r="B484" t="n">
-        <v>1.198276776e-13</v>
+        <v>3.21835392e-13</v>
       </c>
       <c r="C484" t="n">
-        <v>7.44236334e-15</v>
+        <v>9.933937919999999e-15</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>3.05</v>
+        <v>3.01703</v>
       </c>
       <c r="B485" t="n">
-        <v>9.598991759999999e-14</v>
+        <v>2.65906368e-13</v>
       </c>
       <c r="C485" t="n">
-        <v>6.93462546e-15</v>
+        <v>7.48105164e-15</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>3.05401</v>
+        <v>3.01753</v>
       </c>
       <c r="B486" t="n">
-        <v>7.4035629e-14</v>
+        <v>2.548541700000001e-13</v>
       </c>
       <c r="C486" t="n">
-        <v>6.142836960000002e-15</v>
+        <v>6.562384740000001e-15</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>3.05801</v>
+        <v>3.01809</v>
       </c>
       <c r="B487" t="n">
-        <v>7.48898154e-14</v>
+        <v>2.15734932e-13</v>
       </c>
       <c r="C487" t="n">
-        <v>7.901897040000001e-15</v>
+        <v>6.68484162e-15</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>3.05997</v>
+        <v>3.01852</v>
       </c>
       <c r="B488" t="n">
-        <v>7.627826879999999e-14</v>
+        <v>1.82153808e-13</v>
       </c>
       <c r="C488" t="n">
-        <v>5.61951162e-15</v>
+        <v>8.53044174e-15</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>3.06048</v>
+        <v>3.01857</v>
       </c>
       <c r="B489" t="n">
-        <v>7.947922500000001e-14</v>
+        <v>1.95254964e-13</v>
       </c>
       <c r="C489" t="n">
-        <v>7.2700362e-15</v>
+        <v>8.0227359e-15</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>3.06096</v>
+        <v>3.01898</v>
       </c>
       <c r="B490" t="n">
-        <v>1.004119182e-13</v>
+        <v>1.8060147e-13</v>
       </c>
       <c r="C490" t="n">
-        <v>8.33842602e-15</v>
+        <v>7.293377339999999e-15</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>3.0613</v>
+        <v>3.02004</v>
       </c>
       <c r="B491" t="n">
-        <v>1.137176496e-13</v>
+        <v>1.53057483e-13</v>
       </c>
       <c r="C491" t="n">
-        <v>8.088353819999998e-15</v>
+        <v>7.944029640000001e-15</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>3.06147</v>
+        <v>3.02218</v>
       </c>
       <c r="B492" t="n">
-        <v>1.031394834e-13</v>
+        <v>1.159682994e-13</v>
       </c>
       <c r="C492" t="n">
-        <v>8.56659888e-15</v>
+        <v>7.429563359999999e-15</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>3.06178</v>
+        <v>3.02247</v>
       </c>
       <c r="B493" t="n">
-        <v>1.197836226e-13</v>
+        <v>1.17469053e-13</v>
       </c>
       <c r="C493" t="n">
-        <v>9.351963360000001e-15</v>
+        <v>5.8786191e-15</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>3.062</v>
+        <v>3.02586</v>
       </c>
       <c r="B494" t="n">
-        <v>1.083998106e-13</v>
+        <v>1.08330444e-13</v>
       </c>
       <c r="C494" t="n">
-        <v>8.287306199999999e-15</v>
+        <v>6.957774360000002e-15</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>3.06227</v>
+        <v>3.02634</v>
       </c>
       <c r="B495" t="n">
-        <v>1.308175578e-13</v>
+        <v>1.055274246e-13</v>
       </c>
       <c r="C495" t="n">
-        <v>9.527927039999999e-15</v>
+        <v>6.99164064e-15</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>3.06258</v>
+        <v>3.02991</v>
       </c>
       <c r="B496" t="n">
-        <v>1.18194759e-13</v>
+        <v>9.7091613e-14</v>
       </c>
       <c r="C496" t="n">
-        <v>7.723594439999999e-15</v>
+        <v>6.453560880000001e-15</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>3.0628</v>
+        <v>3.03034</v>
       </c>
       <c r="B497" t="n">
-        <v>1.315620072e-13</v>
+        <v>1.078732332e-13</v>
       </c>
       <c r="C497" t="n">
-        <v>8.306882639999999e-15</v>
+        <v>5.84287848e-15</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>3.06312</v>
+        <v>3.03203</v>
       </c>
       <c r="B498" t="n">
-        <v>1.18966122e-13</v>
+        <v>1.12731939e-13</v>
       </c>
       <c r="C498" t="n">
-        <v>9.48874212e-15</v>
+        <v>5.2915662e-15</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>3.06324</v>
+        <v>3.03244</v>
       </c>
       <c r="B499" t="n">
-        <v>1.140148206e-13</v>
+        <v>1.259375454e-13</v>
       </c>
       <c r="C499" t="n">
-        <v>1.01652507e-14</v>
+        <v>6.84960732e-15</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>3.06353</v>
+        <v>3.033</v>
       </c>
       <c r="B500" t="n">
-        <v>1.390108266e-13</v>
+        <v>9.58934772e-14</v>
       </c>
       <c r="C500" t="n">
-        <v>5.003510580000001e-15</v>
+        <v>6.4289061e-15</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>3.06375</v>
+        <v>3.0335</v>
       </c>
       <c r="B501" t="n">
-        <v>1.352036736e-13</v>
+        <v>1.7811837e-13</v>
       </c>
       <c r="C501" t="n">
-        <v>5.03007174e-15</v>
+        <v>7.600576860000001e-15</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>3.06404</v>
+        <v>3.0336</v>
       </c>
       <c r="B502" t="n">
-        <v>1.403100486e-13</v>
+        <v>1.241367372e-13</v>
       </c>
       <c r="C502" t="n">
-        <v>5.282659080000001e-15</v>
+        <v>7.26245874e-15</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>3.06418</v>
+        <v>3.03367</v>
       </c>
       <c r="B503" t="n">
-        <v>1.33124598e-13</v>
+        <v>2.616066e-13</v>
       </c>
       <c r="C503" t="n">
-        <v>5.751772739999999e-15</v>
+        <v>9.07153326e-15</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>3.06445</v>
+        <v>3.03399</v>
       </c>
       <c r="B504" t="n">
-        <v>1.231660854e-13</v>
+        <v>1.67548374e-13</v>
       </c>
       <c r="C504" t="n">
-        <v>6.10600698e-15</v>
+        <v>6.9920091e-15</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>3.06481</v>
+        <v>3.03401</v>
       </c>
       <c r="B505" t="n">
-        <v>1.164200634e-13</v>
+        <v>6.35877054e-13</v>
       </c>
       <c r="C505" t="n">
-        <v>4.69526976e-15</v>
+        <v>1.35852804e-14</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>3.06498</v>
+        <v>3.03423</v>
       </c>
       <c r="B506" t="n">
-        <v>1.310487264e-13</v>
+        <v>3.84156396e-13</v>
       </c>
       <c r="C506" t="n">
-        <v>5.3123922e-15</v>
+        <v>8.330175719999999e-15</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>3.06532</v>
+        <v>3.03432</v>
       </c>
       <c r="B507" t="n">
-        <v>1.344151692e-13</v>
+        <v>2.1919365e-13</v>
       </c>
       <c r="C507" t="n">
-        <v>5.43665934e-15</v>
+        <v>6.3459225e-15</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>3.06547</v>
+        <v>3.03444</v>
       </c>
       <c r="B508" t="n">
-        <v>1.272085722e-13</v>
+        <v>5.6156508e-13</v>
       </c>
       <c r="C508" t="n">
-        <v>5.08064688e-15</v>
+        <v>8.643783239999999e-15</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>3.06583</v>
+        <v>3.03452</v>
       </c>
       <c r="B509" t="n">
-        <v>1.23286716e-13</v>
+        <v>2.93848452e-13</v>
       </c>
       <c r="C509" t="n">
-        <v>5.2164324e-15</v>
+        <v>9.79882524e-15</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>3.06603</v>
+        <v>3.03483</v>
       </c>
       <c r="B510" t="n">
-        <v>1.122595092e-13</v>
+        <v>4.8648735e-13</v>
       </c>
       <c r="C510" t="n">
-        <v>4.92368292e-15</v>
+        <v>1.34812305e-14</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>3.0662</v>
+        <v>3.03488</v>
       </c>
       <c r="B511" t="n">
-        <v>1.056972366e-13</v>
+        <v>3.6407052e-13</v>
       </c>
       <c r="C511" t="n">
-        <v>5.7851424e-15</v>
+        <v>9.252783540000001e-15</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>3.06658</v>
+        <v>3.03505</v>
       </c>
       <c r="B512" t="n">
-        <v>1.000442592e-13</v>
+        <v>7.29733428e-13</v>
       </c>
       <c r="C512" t="n">
-        <v>4.60036728e-15</v>
+        <v>1.66797036e-14</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>3.06707</v>
+        <v>3.03594</v>
       </c>
       <c r="B513" t="n">
-        <v>1.202233716e-13</v>
+        <v>3.00395826e-13</v>
       </c>
       <c r="C513" t="n">
-        <v>6.1443909e-15</v>
+        <v>1.09766637e-14</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>3.06758</v>
+        <v>3.03698</v>
       </c>
       <c r="B514" t="n">
-        <v>9.7210161e-14</v>
+        <v>1.61218872e-13</v>
       </c>
       <c r="C514" t="n">
-        <v>5.22774252e-15</v>
+        <v>7.845586739999999e-15</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>3.06787</v>
+        <v>3.03799</v>
       </c>
       <c r="B515" t="n">
-        <v>1.014415236e-13</v>
+        <v>1.387511424e-13</v>
       </c>
       <c r="C515" t="n">
-        <v>5.71966866e-15</v>
+        <v>7.658184779999999e-15</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>3.06913</v>
+        <v>3.03879</v>
       </c>
       <c r="B516" t="n">
-        <v>1.062810054e-13</v>
+        <v>1.488323682e-13</v>
       </c>
       <c r="C516" t="n">
-        <v>5.83725546e-15</v>
+        <v>6.04224738e-15</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>3.06998</v>
+        <v>3.03898</v>
       </c>
       <c r="B517" t="n">
-        <v>1.266707808e-13</v>
+        <v>1.367302194e-13</v>
       </c>
       <c r="C517" t="n">
-        <v>6.01624692e-15</v>
+        <v>7.965480419999999e-15</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>3.07095</v>
+        <v>3.04002</v>
       </c>
       <c r="B518" t="n">
-        <v>1.496899188e-13</v>
+        <v>1.446171858e-13</v>
       </c>
       <c r="C518" t="n">
-        <v>5.38497882e-15</v>
+        <v>6.7931208e-15</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>3.07209</v>
+        <v>3.04202</v>
       </c>
       <c r="B519" t="n">
-        <v>2.3924268e-13</v>
+        <v>1.502015976e-13</v>
       </c>
       <c r="C519" t="n">
-        <v>7.17925086e-15</v>
+        <v>7.6422609e-15</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>3.07245</v>
+        <v>3.04296</v>
       </c>
       <c r="B520" t="n">
-        <v>3.41373384e-13</v>
+        <v>1.43656947e-13</v>
       </c>
       <c r="C520" t="n">
-        <v>7.31027844e-15</v>
+        <v>6.37918002e-15</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>3.07279</v>
+        <v>3.04591</v>
       </c>
       <c r="B521" t="n">
-        <v>5.84251002e-13</v>
+        <v>1.198276776e-13</v>
       </c>
       <c r="C521" t="n">
-        <v>1.05329898e-14</v>
+        <v>7.44236334e-15</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>3.07309</v>
+        <v>3.04695</v>
       </c>
       <c r="B522" t="n">
-        <v>9.40212198e-13</v>
+        <v>1.144209276e-13</v>
       </c>
       <c r="C522" t="n">
-        <v>1.394151714e-14</v>
+        <v>6.28471008e-15</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>3.07328</v>
+        <v>3.04891</v>
       </c>
       <c r="B523" t="n">
-        <v>1.313777772e-12</v>
+        <v>8.946304920000001e-14</v>
       </c>
       <c r="C523" t="n">
-        <v>1.434381138e-14</v>
+        <v>5.29089336e-15</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>3.07362</v>
+        <v>3.05</v>
       </c>
       <c r="B524" t="n">
-        <v>1.33361694e-12</v>
+        <v>9.598991759999999e-14</v>
       </c>
       <c r="C524" t="n">
-        <v>1.52086671e-14</v>
+        <v>6.93462546e-15</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>3.07384</v>
+        <v>3.0529</v>
       </c>
       <c r="B525" t="n">
-        <v>1.110163572000001e-12</v>
+        <v>8.80366284e-14</v>
       </c>
       <c r="C525" t="n">
-        <v>1.491804828e-14</v>
+        <v>5.57270118e-15</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>3.07401</v>
+        <v>3.05401</v>
       </c>
       <c r="B526" t="n">
-        <v>8.44092198e-13</v>
+        <v>7.4035629e-14</v>
       </c>
       <c r="C526" t="n">
-        <v>1.26065385e-14</v>
+        <v>6.142836960000002e-15</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>3.0743</v>
+        <v>3.05694</v>
       </c>
       <c r="B527" t="n">
-        <v>5.49131958e-13</v>
+        <v>9.089731980000001e-14</v>
       </c>
       <c r="C527" t="n">
-        <v>1.121773266e-14</v>
+        <v>6.83898606e-15</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>3.07452</v>
+        <v>3.05801</v>
       </c>
       <c r="B528" t="n">
-        <v>4.38813432e-13</v>
+        <v>7.48898154e-14</v>
       </c>
       <c r="C528" t="n">
-        <v>1.017082566e-14</v>
+        <v>7.901897040000001e-15</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>3.07505</v>
+        <v>3.05997</v>
       </c>
       <c r="B529" t="n">
-        <v>2.67674976e-13</v>
+        <v>7.627826879999999e-14</v>
       </c>
       <c r="C529" t="n">
-        <v>7.950197339999999e-15</v>
+        <v>5.61951162e-15</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>3.07537</v>
+        <v>3.06048</v>
       </c>
       <c r="B530" t="n">
-        <v>2.14485372e-13</v>
+        <v>7.947922500000001e-14</v>
       </c>
       <c r="C530" t="n">
-        <v>7.715600459999999e-15</v>
+        <v>7.2700362e-15</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>3.07593</v>
+        <v>3.06094</v>
       </c>
       <c r="B531" t="n">
-        <v>1.77822e-13</v>
+        <v>1.281420576e-13</v>
       </c>
       <c r="C531" t="n">
-        <v>6.57153216e-15</v>
+        <v>5.83294608e-15</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>3.07644</v>
+        <v>3.06096</v>
       </c>
       <c r="B532" t="n">
-        <v>1.540869282e-13</v>
+        <v>1.004119182e-13</v>
       </c>
       <c r="C532" t="n">
-        <v>7.167171780000001e-15</v>
+        <v>8.33842602e-15</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>3.07697</v>
+        <v>3.0613</v>
       </c>
       <c r="B533" t="n">
-        <v>1.479213108e-13</v>
+        <v>1.137176496e-13</v>
       </c>
       <c r="C533" t="n">
-        <v>6.93335988e-15</v>
+        <v>8.088353819999998e-15</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>3.07801</v>
+        <v>3.06147</v>
       </c>
       <c r="B534" t="n">
-        <v>1.276806816e-13</v>
+        <v>1.031394834e-13</v>
       </c>
       <c r="C534" t="n">
-        <v>5.05067346e-15</v>
+        <v>8.56659888e-15</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>3.08001</v>
+        <v>3.06178</v>
       </c>
       <c r="B535" t="n">
-        <v>1.015502994e-13</v>
+        <v>1.197836226e-13</v>
       </c>
       <c r="C535" t="n">
-        <v>7.140915000000001e-15</v>
+        <v>9.351963360000001e-15</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>3.08205</v>
+        <v>3.062</v>
       </c>
       <c r="B536" t="n">
-        <v>1.111126374e-13</v>
+        <v>1.083998106e-13</v>
       </c>
       <c r="C536" t="n">
-        <v>5.9022486e-15</v>
+        <v>8.287306199999999e-15</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>3.0829</v>
+        <v>3.06227</v>
       </c>
       <c r="B537" t="n">
-        <v>1.162662714e-13</v>
+        <v>1.308175578e-13</v>
       </c>
       <c r="C537" t="n">
-        <v>5.90063058e-15</v>
+        <v>9.527927039999999e-15</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>3.08356</v>
+        <v>3.06258</v>
       </c>
       <c r="B538" t="n">
-        <v>1.198014048e-13</v>
+        <v>1.18194759e-13</v>
       </c>
       <c r="C538" t="n">
-        <v>6.2043057e-15</v>
+        <v>7.723594439999999e-15</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>3.08506</v>
+        <v>3.0628</v>
       </c>
       <c r="B539" t="n">
-        <v>9.671354100000001e-14</v>
+        <v>1.315620072e-13</v>
       </c>
       <c r="C539" t="n">
-        <v>5.18098014e-15</v>
+        <v>8.306882639999999e-15</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>3.08604</v>
+        <v>3.06292</v>
       </c>
       <c r="B540" t="n">
-        <v>1.155022776e-13</v>
+        <v>1.36244493e-13</v>
       </c>
       <c r="C540" t="n">
-        <v>7.48736352e-15</v>
+        <v>6.322341060000001e-15</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>3.08798</v>
+        <v>3.06312</v>
       </c>
       <c r="B541" t="n">
-        <v>1.225911276e-13</v>
+        <v>1.18966122e-13</v>
       </c>
       <c r="C541" t="n">
-        <v>6.0709392e-15</v>
+        <v>9.48874212e-15</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>3.08898</v>
+        <v>3.06324</v>
       </c>
       <c r="B542" t="n">
-        <v>1.108875564e-13</v>
+        <v>1.140148206e-13</v>
       </c>
       <c r="C542" t="n">
-        <v>5.32797966e-15</v>
+        <v>1.01652507e-14</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>3.08998</v>
+        <v>3.06353</v>
       </c>
       <c r="B543" t="n">
-        <v>1.18028952e-13</v>
+        <v>1.390108266e-13</v>
       </c>
       <c r="C543" t="n">
-        <v>5.91032268e-15</v>
+        <v>5.003510580000001e-15</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>3.09102</v>
+        <v>3.06375</v>
       </c>
       <c r="B544" t="n">
-        <v>1.303124472e-13</v>
+        <v>1.352036736e-13</v>
       </c>
       <c r="C544" t="n">
-        <v>6.002549820000001e-15</v>
+        <v>5.03007174e-15</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>3.09197</v>
+        <v>3.06389</v>
       </c>
       <c r="B545" t="n">
-        <v>1.222361244e-13</v>
+        <v>1.19377035e-13</v>
       </c>
       <c r="C545" t="n">
-        <v>6.55807536e-15</v>
+        <v>6.25859748e-15</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>3.09305</v>
+        <v>3.06404</v>
       </c>
       <c r="B546" t="n">
-        <v>1.267809984e-13</v>
+        <v>1.403100486e-13</v>
       </c>
       <c r="C546" t="n">
-        <v>5.86242288e-15</v>
+        <v>5.282659080000001e-15</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>3.09412</v>
+        <v>3.06418</v>
       </c>
       <c r="B547" t="n">
-        <v>1.353661164e-13</v>
+        <v>1.33124598e-13</v>
       </c>
       <c r="C547" t="n">
-        <v>6.36096528e-15</v>
+        <v>5.751772739999999e-15</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>3.09509</v>
+        <v>3.06445</v>
       </c>
       <c r="B548" t="n">
-        <v>1.274171526e-13</v>
+        <v>1.231660854e-13</v>
       </c>
       <c r="C548" t="n">
-        <v>5.83534908e-15</v>
+        <v>6.10600698e-15</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>3.09597</v>
+        <v>3.06455</v>
       </c>
       <c r="B549" t="n">
-        <v>1.253577816e-13</v>
+        <v>1.093638942e-13</v>
       </c>
       <c r="C549" t="n">
-        <v>7.77333654e-15</v>
+        <v>7.774297740000001e-15</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>3.09799</v>
+        <v>3.06481</v>
       </c>
       <c r="B550" t="n">
-        <v>1.438288416e-13</v>
+        <v>1.164200634e-13</v>
       </c>
       <c r="C550" t="n">
-        <v>6.76987578e-15</v>
+        <v>4.69526976e-15</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>3.0996</v>
+        <v>3.06486</v>
       </c>
       <c r="B551" t="n">
-        <v>1.564534026e-13</v>
+        <v>1.20343041e-13</v>
       </c>
       <c r="C551" t="n">
-        <v>7.652049120000001e-15</v>
+        <v>8.010865079999999e-15</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>3.09994</v>
+        <v>3.06498</v>
       </c>
       <c r="B552" t="n">
-        <v>1.554037722e-13</v>
+        <v>1.310487264e-13</v>
       </c>
       <c r="C552" t="n">
-        <v>6.2049465e-15</v>
+        <v>5.3123922e-15</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>3.10065</v>
+        <v>3.06532</v>
       </c>
       <c r="B553" t="n">
-        <v>1.80066402e-13</v>
+        <v>1.344151692e-13</v>
       </c>
       <c r="C553" t="n">
-        <v>7.46648946e-15</v>
+        <v>5.43665934e-15</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>3.10126</v>
+        <v>3.06547</v>
       </c>
       <c r="B554" t="n">
-        <v>2.483148059999999e-13</v>
+        <v>1.272085722e-13</v>
       </c>
       <c r="C554" t="n">
-        <v>8.02571562e-15</v>
+        <v>5.08064688e-15</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>3.10145</v>
+        <v>3.06583</v>
       </c>
       <c r="B555" t="n">
-        <v>2.68453548e-13</v>
+        <v>1.23286716e-13</v>
       </c>
       <c r="C555" t="n">
-        <v>9.1227492e-15</v>
+        <v>5.2164324e-15</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>3.10175</v>
+        <v>3.06603</v>
       </c>
       <c r="B556" t="n">
-        <v>3.09205224e-13</v>
+        <v>1.122595092e-13</v>
       </c>
       <c r="C556" t="n">
-        <v>8.253391860000001e-15</v>
+        <v>4.92368292e-15</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>3.10211</v>
+        <v>3.0662</v>
       </c>
       <c r="B557" t="n">
-        <v>4.702094279999999e-13</v>
+        <v>1.056972366e-13</v>
       </c>
       <c r="C557" t="n">
-        <v>1.09014498e-14</v>
+        <v>5.7851424e-15</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>3.10231</v>
+        <v>3.06658</v>
       </c>
       <c r="B558" t="n">
-        <v>5.410690919999999e-13</v>
+        <v>1.000442592e-13</v>
       </c>
       <c r="C558" t="n">
-        <v>1.203372738e-14</v>
+        <v>4.60036728e-15</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>3.10248</v>
+        <v>3.06707</v>
       </c>
       <c r="B559" t="n">
-        <v>5.567078160000001e-13</v>
+        <v>1.202233716e-13</v>
       </c>
       <c r="C559" t="n">
-        <v>1.206068904e-14</v>
+        <v>6.1443909e-15</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>3.10267</v>
+        <v>3.06758</v>
       </c>
       <c r="B560" t="n">
-        <v>5.59793268e-13</v>
+        <v>9.7210161e-14</v>
       </c>
       <c r="C560" t="n">
-        <v>1.283701824e-14</v>
+        <v>5.22774252e-15</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>3.10301</v>
+        <v>3.06787</v>
       </c>
       <c r="B561" t="n">
-        <v>4.71518262e-13</v>
+        <v>1.014415236e-13</v>
       </c>
       <c r="C561" t="n">
-        <v>1.195415604e-14</v>
+        <v>5.71966866e-15</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>3.10353</v>
+        <v>3.06913</v>
       </c>
       <c r="B562" t="n">
-        <v>2.99151072e-13</v>
+        <v>1.062810054e-13</v>
       </c>
       <c r="C562" t="n">
-        <v>8.5120668e-15</v>
+        <v>5.83725546e-15</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>3.10401</v>
+        <v>3.06998</v>
       </c>
       <c r="B563" t="n">
-        <v>2.29675536e-13</v>
+        <v>1.266707808e-13</v>
       </c>
       <c r="C563" t="n">
-        <v>7.964391060000001e-15</v>
+        <v>6.01624692e-15</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>3.10453</v>
+        <v>3.07042</v>
       </c>
       <c r="B564" t="n">
-        <v>1.92901626e-13</v>
+        <v>1.517749218e-13</v>
       </c>
       <c r="C564" t="n">
-        <v>7.715968920000001e-15</v>
+        <v>6.936243479999999e-15</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>3.10506</v>
+        <v>3.07095</v>
       </c>
       <c r="B565" t="n">
-        <v>1.78323426e-13</v>
+        <v>1.496899188e-13</v>
       </c>
       <c r="C565" t="n">
-        <v>6.20674074e-15</v>
+        <v>5.38497882e-15</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>3.10538</v>
+        <v>3.07097</v>
       </c>
       <c r="B566" t="n">
-        <v>1.78482024e-13</v>
+        <v>1.96772058e-13</v>
       </c>
       <c r="C566" t="n">
-        <v>6.761224980000001e-15</v>
+        <v>8.92591146e-15</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>3.10592</v>
+        <v>3.07192</v>
       </c>
       <c r="B567" t="n">
-        <v>1.69105518e-13</v>
+        <v>5.12755344e-13</v>
       </c>
       <c r="C567" t="n">
-        <v>6.89217246e-15</v>
+        <v>2.05829766e-14</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>3.10658</v>
+        <v>3.07204</v>
       </c>
       <c r="B568" t="n">
-        <v>1.76682978e-13</v>
+        <v>7.53816294e-13</v>
       </c>
       <c r="C568" t="n">
-        <v>8.154868860000001e-15</v>
+        <v>1.88862984e-14</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>3.10709</v>
+        <v>3.07209</v>
       </c>
       <c r="B569" t="n">
-        <v>1.6103304e-13</v>
+        <v>2.3924268e-13</v>
       </c>
       <c r="C569" t="n">
-        <v>7.942988339999999e-15</v>
+        <v>7.17925086e-15</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>3.10745</v>
+        <v>3.07241</v>
       </c>
       <c r="B570" t="n">
-        <v>1.336545396e-13</v>
+        <v>1.184400252e-12</v>
       </c>
       <c r="C570" t="n">
-        <v>7.10344422e-15</v>
+        <v>3.2193792e-14</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>3.10784</v>
+        <v>3.07245</v>
       </c>
       <c r="B571" t="n">
-        <v>1.382835186e-13</v>
+        <v>3.41373384e-13</v>
       </c>
       <c r="C571" t="n">
-        <v>7.46895654e-15</v>
+        <v>7.31027844e-15</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>3.112</v>
+        <v>3.0726</v>
       </c>
       <c r="B572" t="n">
-        <v>1.443035142e-13</v>
+        <v>1.33580367e-12</v>
       </c>
       <c r="C572" t="n">
-        <v>7.35893118e-15</v>
+        <v>2.07271566e-14</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>3.11559</v>
+        <v>3.07279</v>
       </c>
       <c r="B573" t="n">
-        <v>1.82064096e-13</v>
+        <v>5.84251002e-13</v>
       </c>
       <c r="C573" t="n">
-        <v>8.166467339999998e-15</v>
+        <v>1.05329898e-14</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>3.12001</v>
+        <v>3.07292</v>
       </c>
       <c r="B574" t="n">
-        <v>2.189437379999999e-13</v>
+        <v>1.144002618e-12</v>
       </c>
       <c r="C574" t="n">
-        <v>9.2790243e-15</v>
+        <v>1.84856382e-14</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>3.124</v>
+        <v>3.07309</v>
       </c>
       <c r="B575" t="n">
-        <v>2.32040088e-13</v>
+        <v>9.500324579999999e-13</v>
       </c>
       <c r="C575" t="n">
-        <v>9.177697800000001e-15</v>
+        <v>1.77978996e-14</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>3.1349</v>
+        <v>3.07309</v>
       </c>
       <c r="B576" t="n">
-        <v>2.11661046e-13</v>
+        <v>9.40212198e-13</v>
       </c>
       <c r="C576" t="n">
-        <v>6.74720748e-15</v>
+        <v>1.394151714e-14</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>3.13895</v>
+        <v>3.07328</v>
       </c>
       <c r="B577" t="n">
-        <v>1.90767762e-13</v>
+        <v>1.313777772e-12</v>
       </c>
       <c r="C577" t="n">
-        <v>6.96680964e-15</v>
+        <v>1.434381138e-14</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>3.14273</v>
+        <v>3.0734</v>
       </c>
       <c r="B578" t="n">
-        <v>1.65730104e-13</v>
+        <v>8.203024979999999e-13</v>
       </c>
       <c r="C578" t="n">
-        <v>6.37778628e-15</v>
+        <v>1.83273606e-14</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>3.14764</v>
+        <v>3.07362</v>
       </c>
       <c r="B579" t="n">
-        <v>1.279422882e-13</v>
+        <v>1.33361694e-12</v>
       </c>
       <c r="C579" t="n">
-        <v>8.07438438e-15</v>
+        <v>1.52086671e-14</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>3.15204</v>
+        <v>3.07374</v>
       </c>
       <c r="B580" t="n">
-        <v>1.200195972e-13</v>
+        <v>6.241119660000001e-13</v>
       </c>
       <c r="C580" t="n">
-        <v>7.417724579999999e-15</v>
+        <v>1.60249662e-14</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>3.157</v>
+        <v>3.07384</v>
       </c>
       <c r="B581" t="n">
-        <v>1.216610064e-13</v>
+        <v>1.110163572000001e-12</v>
       </c>
       <c r="C581" t="n">
-        <v>6.60650382e-15</v>
+        <v>1.491804828e-14</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>3.15782</v>
+        <v>3.07398</v>
       </c>
       <c r="B582" t="n">
-        <v>1.046341494e-13</v>
+        <v>4.09490424e-13</v>
       </c>
       <c r="C582" t="n">
-        <v>6.9614109e-15</v>
+        <v>1.097749674e-14</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>3.15836</v>
+        <v>3.07401</v>
       </c>
       <c r="B583" t="n">
-        <v>1.230614748e-13</v>
+        <v>8.44092198e-13</v>
       </c>
       <c r="C583" t="n">
-        <v>5.664704039999999e-15</v>
+        <v>1.26065385e-14</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>3.15887</v>
+        <v>3.0743</v>
       </c>
       <c r="B584" t="n">
-        <v>1.110520818e-13</v>
+        <v>5.49131958e-13</v>
       </c>
       <c r="C584" t="n">
-        <v>7.288266960000001e-15</v>
+        <v>1.121773266e-14</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>3.15981</v>
+        <v>3.07452</v>
       </c>
       <c r="B585" t="n">
-        <v>1.480626072e-13</v>
+        <v>4.38813432e-13</v>
       </c>
       <c r="C585" t="n">
-        <v>8.679123359999999e-15</v>
+        <v>1.017082566e-14</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>3.16087</v>
+        <v>3.07452</v>
       </c>
       <c r="B586" t="n">
-        <v>4.19514138e-13</v>
+        <v>2.6758206e-13</v>
       </c>
       <c r="C586" t="n">
-        <v>9.80898192e-15</v>
+        <v>9.760553460000001e-15</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>3.16166</v>
+        <v>3.07491</v>
       </c>
       <c r="B587" t="n">
-        <v>1.68669774e-13</v>
+        <v>2.17554804e-13</v>
       </c>
       <c r="C587" t="n">
-        <v>5.0769783e-15</v>
+        <v>9.580392540000001e-15</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>3.16249</v>
+        <v>3.07505</v>
       </c>
       <c r="B588" t="n">
-        <v>1.421581158e-13</v>
+        <v>2.67674976e-13</v>
       </c>
       <c r="C588" t="n">
-        <v>6.625487520000001e-15</v>
+        <v>7.950197339999999e-15</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>3.16316</v>
+        <v>3.07537</v>
       </c>
       <c r="B589" t="n">
-        <v>1.351785222e-13</v>
+        <v>2.14485372e-13</v>
       </c>
       <c r="C589" t="n">
-        <v>5.5096785e-15</v>
+        <v>7.715600459999999e-15</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>3.16392</v>
+        <v>3.0759</v>
       </c>
       <c r="B590" t="n">
-        <v>1.279443708e-13</v>
+        <v>1.318715136e-13</v>
       </c>
       <c r="C590" t="n">
-        <v>4.8057597e-15</v>
+        <v>6.484863960000002e-15</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>3.16525</v>
+        <v>3.07593</v>
       </c>
       <c r="B591" t="n">
-        <v>1.281883554e-13</v>
+        <v>1.77822e-13</v>
       </c>
       <c r="C591" t="n">
-        <v>4.36511358e-15</v>
+        <v>6.57153216e-15</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>3.16661</v>
+        <v>3.07644</v>
       </c>
       <c r="B592" t="n">
-        <v>1.291437882e-13</v>
+        <v>1.540869282e-13</v>
       </c>
       <c r="C592" t="n">
-        <v>6.34076406e-15</v>
+        <v>7.167171780000001e-15</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>3.16764</v>
+        <v>3.07697</v>
       </c>
       <c r="B593" t="n">
-        <v>1.51346547e-13</v>
+        <v>1.479213108e-13</v>
       </c>
       <c r="C593" t="n">
-        <v>6.33626244e-15</v>
+        <v>6.93335988e-15</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>3.1689</v>
+        <v>3.07784</v>
       </c>
       <c r="B594" t="n">
-        <v>1.64105676e-13</v>
+        <v>1.217101878e-13</v>
       </c>
       <c r="C594" t="n">
-        <v>6.55789914e-15</v>
+        <v>6.76184976e-15</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>3.17043</v>
+        <v>3.07801</v>
       </c>
       <c r="B595" t="n">
-        <v>1.92275244e-13</v>
+        <v>1.276806816e-13</v>
       </c>
       <c r="C595" t="n">
-        <v>7.21241226e-15</v>
+        <v>5.05067346e-15</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>3.17279</v>
+        <v>3.08001</v>
       </c>
       <c r="B596" t="n">
-        <v>2.70366336e-13</v>
+        <v>1.015502994e-13</v>
       </c>
       <c r="C596" t="n">
-        <v>9.4282506e-15</v>
+        <v>7.140915000000001e-15</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>3.17383</v>
+        <v>3.0819</v>
       </c>
       <c r="B597" t="n">
-        <v>3.33693396e-13</v>
+        <v>1.079422794e-13</v>
       </c>
       <c r="C597" t="n">
-        <v>7.286504760000001e-15</v>
+        <v>8.376040980000001e-15</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>3.17484</v>
+        <v>3.08205</v>
       </c>
       <c r="B598" t="n">
-        <v>3.80289168e-13</v>
+        <v>1.111126374e-13</v>
       </c>
       <c r="C598" t="n">
-        <v>1.045468404e-14</v>
+        <v>5.9022486e-15</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>3.17728</v>
+        <v>3.0829</v>
       </c>
       <c r="B599" t="n">
-        <v>4.743570060000001e-13</v>
+        <v>1.162662714e-13</v>
       </c>
       <c r="C599" t="n">
-        <v>1.059740622e-14</v>
+        <v>5.90063058e-15</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>3.17815</v>
+        <v>3.08356</v>
       </c>
       <c r="B600" t="n">
-        <v>4.6063107e-13</v>
+        <v>1.198014048e-13</v>
       </c>
       <c r="C600" t="n">
-        <v>1.326061908e-14</v>
+        <v>6.2043057e-15</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.08506</v>
       </c>
       <c r="B601" t="n">
-        <v>1.68769098e-13</v>
+        <v>9.671354100000001e-14</v>
       </c>
       <c r="C601" t="n">
-        <v>5.54034078e-15</v>
+        <v>5.18098014e-15</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.08579</v>
       </c>
       <c r="B602" t="n">
-        <v>2.38734846e-13</v>
+        <v>9.690113520000001e-14</v>
       </c>
       <c r="C602" t="n">
-        <v>7.61191902e-15</v>
+        <v>6.11976816e-15</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>3.18983</v>
+        <v>3.08604</v>
       </c>
       <c r="B603" t="n">
-        <v>1.250269686e-13</v>
+        <v>1.155022776e-13</v>
       </c>
       <c r="C603" t="n">
-        <v>3.16007316e-15</v>
+        <v>7.48736352e-15</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>3.19196</v>
+        <v>3.08798</v>
       </c>
       <c r="B604" t="n">
-        <v>9.4194396e-14</v>
+        <v>1.225911276e-13</v>
       </c>
       <c r="C604" t="n">
-        <v>4.06356912e-15</v>
+        <v>6.0709392e-15</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>3.19392</v>
+        <v>3.08898</v>
       </c>
       <c r="B605" t="n">
-        <v>7.49434824e-14</v>
+        <v>1.108875564e-13</v>
       </c>
       <c r="C605" t="n">
-        <v>7.134106499999999e-15</v>
+        <v>5.32797966e-15</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>3.1959</v>
+        <v>3.08959</v>
       </c>
       <c r="B606" t="n">
-        <v>7.419182399999998e-14</v>
+        <v>1.145284218e-13</v>
       </c>
       <c r="C606" t="n">
-        <v>7.14178008e-15</v>
+        <v>5.64038568e-15</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
+        <v>3.08998</v>
+      </c>
+      <c r="B607" t="n">
+        <v>1.18028952e-13</v>
+      </c>
+      <c r="C607" t="n">
+        <v>5.91032268e-15</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>3.09102</v>
+      </c>
+      <c r="B608" t="n">
+        <v>1.303124472e-13</v>
+      </c>
+      <c r="C608" t="n">
+        <v>6.002549820000001e-15</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>3.09197</v>
+      </c>
+      <c r="B609" t="n">
+        <v>1.222361244e-13</v>
+      </c>
+      <c r="C609" t="n">
+        <v>6.55807536e-15</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>3.09305</v>
+      </c>
+      <c r="B610" t="n">
+        <v>1.267809984e-13</v>
+      </c>
+      <c r="C610" t="n">
+        <v>5.86242288e-15</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>3.0937</v>
+      </c>
+      <c r="B611" t="n">
+        <v>1.302581394e-13</v>
+      </c>
+      <c r="C611" t="n">
+        <v>5.85425268e-15</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>3.09412</v>
+      </c>
+      <c r="B612" t="n">
+        <v>1.353661164e-13</v>
+      </c>
+      <c r="C612" t="n">
+        <v>6.36096528e-15</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>3.09509</v>
+      </c>
+      <c r="B613" t="n">
+        <v>1.274171526e-13</v>
+      </c>
+      <c r="C613" t="n">
+        <v>5.83534908e-15</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>3.09597</v>
+      </c>
+      <c r="B614" t="n">
+        <v>1.253577816e-13</v>
+      </c>
+      <c r="C614" t="n">
+        <v>7.77333654e-15</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>3.09784</v>
+      </c>
+      <c r="B615" t="n">
+        <v>1.320315534e-13</v>
+      </c>
+      <c r="C615" t="n">
+        <v>7.00862184e-15</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>3.09799</v>
+      </c>
+      <c r="B616" t="n">
+        <v>1.438288416e-13</v>
+      </c>
+      <c r="C616" t="n">
+        <v>6.76987578e-15</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>3.09899</v>
+      </c>
+      <c r="B617" t="n">
+        <v>1.44906507e-13</v>
+      </c>
+      <c r="C617" t="n">
+        <v>5.83972254e-15</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>3.09945</v>
+      </c>
+      <c r="B618" t="n">
+        <v>1.64828178e-13</v>
+      </c>
+      <c r="C618" t="n">
+        <v>6.19227468e-15</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>3.0996</v>
+      </c>
+      <c r="B619" t="n">
+        <v>1.564534026e-13</v>
+      </c>
+      <c r="C619" t="n">
+        <v>7.652049120000001e-15</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>3.09994</v>
+      </c>
+      <c r="B620" t="n">
+        <v>1.554037722e-13</v>
+      </c>
+      <c r="C620" t="n">
+        <v>6.2049465e-15</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>3.09997</v>
+      </c>
+      <c r="B621" t="n">
+        <v>1.82413332e-13</v>
+      </c>
+      <c r="C621" t="n">
+        <v>8.1655542e-15</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>3.1005</v>
+      </c>
+      <c r="B622" t="n">
+        <v>2.71197774e-13</v>
+      </c>
+      <c r="C622" t="n">
+        <v>1.5636321e-14</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>3.10065</v>
+      </c>
+      <c r="B623" t="n">
+        <v>1.80066402e-13</v>
+      </c>
+      <c r="C623" t="n">
+        <v>7.46648946e-15</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>3.1007</v>
+      </c>
+      <c r="B624" t="n">
+        <v>3.09415086e-13</v>
+      </c>
+      <c r="C624" t="n">
+        <v>8.97389136e-15</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>3.10126</v>
+      </c>
+      <c r="B625" t="n">
+        <v>2.483148059999999e-13</v>
+      </c>
+      <c r="C625" t="n">
+        <v>8.02571562e-15</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>3.10145</v>
+      </c>
+      <c r="B626" t="n">
+        <v>2.68453548e-13</v>
+      </c>
+      <c r="C626" t="n">
+        <v>9.1227492e-15</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>3.10175</v>
+      </c>
+      <c r="B627" t="n">
+        <v>3.09205224e-13</v>
+      </c>
+      <c r="C627" t="n">
+        <v>8.253391860000001e-15</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>3.10211</v>
+      </c>
+      <c r="B628" t="n">
+        <v>4.702094279999999e-13</v>
+      </c>
+      <c r="C628" t="n">
+        <v>1.09014498e-14</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>3.10231</v>
+      </c>
+      <c r="B629" t="n">
+        <v>5.410690919999999e-13</v>
+      </c>
+      <c r="C629" t="n">
+        <v>1.203372738e-14</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>3.10248</v>
+      </c>
+      <c r="B630" t="n">
+        <v>5.567078160000001e-13</v>
+      </c>
+      <c r="C630" t="n">
+        <v>1.206068904e-14</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>3.10267</v>
+      </c>
+      <c r="B631" t="n">
+        <v>5.59793268e-13</v>
+      </c>
+      <c r="C631" t="n">
+        <v>1.283701824e-14</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>3.10301</v>
+      </c>
+      <c r="B632" t="n">
+        <v>4.71518262e-13</v>
+      </c>
+      <c r="C632" t="n">
+        <v>1.195415604e-14</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>3.10353</v>
+      </c>
+      <c r="B633" t="n">
+        <v>2.99151072e-13</v>
+      </c>
+      <c r="C633" t="n">
+        <v>8.5120668e-15</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>3.10401</v>
+      </c>
+      <c r="B634" t="n">
+        <v>2.29675536e-13</v>
+      </c>
+      <c r="C634" t="n">
+        <v>7.964391060000001e-15</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>3.10453</v>
+      </c>
+      <c r="B635" t="n">
+        <v>1.92901626e-13</v>
+      </c>
+      <c r="C635" t="n">
+        <v>7.715968920000001e-15</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>3.10489</v>
+      </c>
+      <c r="B636" t="n">
+        <v>1.60850412e-13</v>
+      </c>
+      <c r="C636" t="n">
+        <v>6.5202201e-15</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>3.10506</v>
+      </c>
+      <c r="B637" t="n">
+        <v>1.78323426e-13</v>
+      </c>
+      <c r="C637" t="n">
+        <v>6.20674074e-15</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>3.10538</v>
+      </c>
+      <c r="B638" t="n">
+        <v>1.78482024e-13</v>
+      </c>
+      <c r="C638" t="n">
+        <v>6.761224980000001e-15</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>3.10592</v>
+      </c>
+      <c r="B639" t="n">
+        <v>1.69105518e-13</v>
+      </c>
+      <c r="C639" t="n">
+        <v>6.89217246e-15</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>3.10658</v>
+      </c>
+      <c r="B640" t="n">
+        <v>1.76682978e-13</v>
+      </c>
+      <c r="C640" t="n">
+        <v>8.154868860000001e-15</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>3.10709</v>
+      </c>
+      <c r="B641" t="n">
+        <v>1.6103304e-13</v>
+      </c>
+      <c r="C641" t="n">
+        <v>7.942988339999999e-15</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>3.10745</v>
+      </c>
+      <c r="B642" t="n">
+        <v>1.336545396e-13</v>
+      </c>
+      <c r="C642" t="n">
+        <v>7.10344422e-15</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>3.10784</v>
+      </c>
+      <c r="B643" t="n">
+        <v>1.382835186e-13</v>
+      </c>
+      <c r="C643" t="n">
+        <v>7.46895654e-15</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>3.10882</v>
+      </c>
+      <c r="B644" t="n">
+        <v>1.524532086e-13</v>
+      </c>
+      <c r="C644" t="n">
+        <v>7.39076292e-15</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="B645" t="n">
+        <v>1.443035142e-13</v>
+      </c>
+      <c r="C645" t="n">
+        <v>7.35893118e-15</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>3.11278</v>
+      </c>
+      <c r="B646" t="n">
+        <v>1.79061948e-13</v>
+      </c>
+      <c r="C646" t="n">
+        <v>7.75154934e-15</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>3.11559</v>
+      </c>
+      <c r="B647" t="n">
+        <v>1.82064096e-13</v>
+      </c>
+      <c r="C647" t="n">
+        <v>8.166467339999998e-15</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>3.11669</v>
+      </c>
+      <c r="B648" t="n">
+        <v>1.96094412e-13</v>
+      </c>
+      <c r="C648" t="n">
+        <v>7.822325699999999e-15</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>3.12001</v>
+      </c>
+      <c r="B649" t="n">
+        <v>2.189437379999999e-13</v>
+      </c>
+      <c r="C649" t="n">
+        <v>9.2790243e-15</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>3.12075</v>
+      </c>
+      <c r="B650" t="n">
+        <v>2.02665816e-13</v>
+      </c>
+      <c r="C650" t="n">
+        <v>7.02714096e-15</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="B651" t="n">
+        <v>2.32040088e-13</v>
+      </c>
+      <c r="C651" t="n">
+        <v>9.177697800000001e-15</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>3.12473</v>
+      </c>
+      <c r="B652" t="n">
+        <v>1.7817444e-13</v>
+      </c>
+      <c r="C652" t="n">
+        <v>7.94026494e-15</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>3.12789</v>
+      </c>
+      <c r="B653" t="n">
+        <v>2.1477213e-13</v>
+      </c>
+      <c r="C653" t="n">
+        <v>8.442876420000001e-15</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>3.12882</v>
+      </c>
+      <c r="B654" t="n">
+        <v>2.0827602e-13</v>
+      </c>
+      <c r="C654" t="n">
+        <v>8.4288429e-15</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>3.13272</v>
+      </c>
+      <c r="B655" t="n">
+        <v>1.522470312e-13</v>
+      </c>
+      <c r="C655" t="n">
+        <v>9.2380932e-15</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>3.1349</v>
+      </c>
+      <c r="B656" t="n">
+        <v>2.11661046e-13</v>
+      </c>
+      <c r="C656" t="n">
+        <v>6.74720748e-15</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>3.13676</v>
+      </c>
+      <c r="B657" t="n">
+        <v>1.389859956e-13</v>
+      </c>
+      <c r="C657" t="n">
+        <v>6.60033612e-15</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>3.13895</v>
+      </c>
+      <c r="B658" t="n">
+        <v>1.90767762e-13</v>
+      </c>
+      <c r="C658" t="n">
+        <v>6.96680964e-15</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>3.14093</v>
+      </c>
+      <c r="B659" t="n">
+        <v>1.22557005e-13</v>
+      </c>
+      <c r="C659" t="n">
+        <v>6.459696539999999e-15</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>3.14273</v>
+      </c>
+      <c r="B660" t="n">
+        <v>1.65730104e-13</v>
+      </c>
+      <c r="C660" t="n">
+        <v>6.37778628e-15</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>3.14278</v>
+      </c>
+      <c r="B661" t="n">
+        <v>1.151408664e-13</v>
+      </c>
+      <c r="C661" t="n">
+        <v>5.87347668e-15</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>3.1468</v>
+      </c>
+      <c r="B662" t="n">
+        <v>9.94845204e-14</v>
+      </c>
+      <c r="C662" t="n">
+        <v>6.75585828e-15</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>3.14764</v>
+      </c>
+      <c r="B663" t="n">
+        <v>1.279422882e-13</v>
+      </c>
+      <c r="C663" t="n">
+        <v>8.07438438e-15</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>3.15086</v>
+      </c>
+      <c r="B664" t="n">
+        <v>1.051174728e-13</v>
+      </c>
+      <c r="C664" t="n">
+        <v>7.377466319999999e-15</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>3.15204</v>
+      </c>
+      <c r="B665" t="n">
+        <v>1.200195972e-13</v>
+      </c>
+      <c r="C665" t="n">
+        <v>7.417724579999999e-15</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>3.1529</v>
+      </c>
+      <c r="B666" t="n">
+        <v>8.830560420000001e-14</v>
+      </c>
+      <c r="C666" t="n">
+        <v>6.4838547e-15</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>3.15511</v>
+      </c>
+      <c r="B667" t="n">
+        <v>9.62563302e-14</v>
+      </c>
+      <c r="C667" t="n">
+        <v>7.151888700000001e-15</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>3.15609</v>
+      </c>
+      <c r="B668" t="n">
+        <v>8.395569360000001e-14</v>
+      </c>
+      <c r="C668" t="n">
+        <v>8.503688339999999e-15</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B669" t="n">
+        <v>9.045596879999999e-14</v>
+      </c>
+      <c r="C669" t="n">
+        <v>4.62758526e-15</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B670" t="n">
+        <v>1.216610064e-13</v>
+      </c>
+      <c r="C670" t="n">
+        <v>6.60650382e-15</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>3.15782</v>
+      </c>
+      <c r="B671" t="n">
+        <v>1.046341494e-13</v>
+      </c>
+      <c r="C671" t="n">
+        <v>6.9614109e-15</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>3.15821</v>
+      </c>
+      <c r="B672" t="n">
+        <v>9.58718502e-14</v>
+      </c>
+      <c r="C672" t="n">
+        <v>9.66089304e-15</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>3.15836</v>
+      </c>
+      <c r="B673" t="n">
+        <v>1.230614748e-13</v>
+      </c>
+      <c r="C673" t="n">
+        <v>5.664704039999999e-15</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>3.15887</v>
+      </c>
+      <c r="B674" t="n">
+        <v>1.110520818e-13</v>
+      </c>
+      <c r="C674" t="n">
+        <v>7.288266960000001e-15</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>3.15905</v>
+      </c>
+      <c r="B675" t="n">
+        <v>1.002959334e-13</v>
+      </c>
+      <c r="C675" t="n">
+        <v>9.037042200000001e-15</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>3.15919</v>
+      </c>
+      <c r="B676" t="n">
+        <v>1.211757606e-13</v>
+      </c>
+      <c r="C676" t="n">
+        <v>9.032268240000001e-15</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>3.15956</v>
+      </c>
+      <c r="B677" t="n">
+        <v>2.25763452e-13</v>
+      </c>
+      <c r="C677" t="n">
+        <v>1.198090944e-14</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>3.15976</v>
+      </c>
+      <c r="B678" t="n">
+        <v>4.73498334e-13</v>
+      </c>
+      <c r="C678" t="n">
+        <v>1.552136148e-14</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>3.15981</v>
+      </c>
+      <c r="B679" t="n">
+        <v>1.480626072e-13</v>
+      </c>
+      <c r="C679" t="n">
+        <v>8.679123359999999e-15</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>3.16079</v>
+      </c>
+      <c r="B680" t="n">
+        <v>3.69200124e-13</v>
+      </c>
+      <c r="C680" t="n">
+        <v>1.28617371e-14</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>3.16087</v>
+      </c>
+      <c r="B681" t="n">
+        <v>4.19514138e-13</v>
+      </c>
+      <c r="C681" t="n">
+        <v>9.80898192e-15</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>3.16166</v>
+      </c>
+      <c r="B682" t="n">
+        <v>1.68669774e-13</v>
+      </c>
+      <c r="C682" t="n">
+        <v>5.0769783e-15</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>3.16183</v>
+      </c>
+      <c r="B683" t="n">
+        <v>1.23076854e-13</v>
+      </c>
+      <c r="C683" t="n">
+        <v>1.041879924e-14</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>3.16249</v>
+      </c>
+      <c r="B684" t="n">
+        <v>1.421581158e-13</v>
+      </c>
+      <c r="C684" t="n">
+        <v>6.625487520000001e-15</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>3.16301</v>
+      </c>
+      <c r="B685" t="n">
+        <v>1.012786002e-13</v>
+      </c>
+      <c r="C685" t="n">
+        <v>6.71415822e-15</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>3.16316</v>
+      </c>
+      <c r="B686" t="n">
+        <v>1.351785222e-13</v>
+      </c>
+      <c r="C686" t="n">
+        <v>5.5096785e-15</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>3.1637</v>
+      </c>
+      <c r="B687" t="n">
+        <v>9.7867782e-14</v>
+      </c>
+      <c r="C687" t="n">
+        <v>8.7763167e-15</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>3.16392</v>
+      </c>
+      <c r="B688" t="n">
+        <v>1.279443708e-13</v>
+      </c>
+      <c r="C688" t="n">
+        <v>4.8057597e-15</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>3.16488</v>
+      </c>
+      <c r="B689" t="n">
+        <v>1.077047028e-13</v>
+      </c>
+      <c r="C689" t="n">
+        <v>8.856016200000001e-15</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>3.16525</v>
+      </c>
+      <c r="B690" t="n">
+        <v>1.281883554e-13</v>
+      </c>
+      <c r="C690" t="n">
+        <v>4.36511358e-15</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>3.16592</v>
+      </c>
+      <c r="B691" t="n">
+        <v>1.07556678e-13</v>
+      </c>
+      <c r="C691" t="n">
+        <v>8.70023772e-15</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>3.16661</v>
+      </c>
+      <c r="B692" t="n">
+        <v>1.291437882e-13</v>
+      </c>
+      <c r="C692" t="n">
+        <v>6.34076406e-15</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>3.1671</v>
+      </c>
+      <c r="B693" t="n">
+        <v>9.92597598e-14</v>
+      </c>
+      <c r="C693" t="n">
+        <v>8.38185624e-15</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>3.16764</v>
+      </c>
+      <c r="B694" t="n">
+        <v>1.51346547e-13</v>
+      </c>
+      <c r="C694" t="n">
+        <v>6.33626244e-15</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>3.16808</v>
+      </c>
+      <c r="B695" t="n">
+        <v>1.243940184e-13</v>
+      </c>
+      <c r="C695" t="n">
+        <v>9.312057539999999e-15</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>3.1689</v>
+      </c>
+      <c r="B696" t="n">
+        <v>1.64105676e-13</v>
+      </c>
+      <c r="C696" t="n">
+        <v>6.55789914e-15</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>3.16897</v>
+      </c>
+      <c r="B697" t="n">
+        <v>1.255461768e-13</v>
+      </c>
+      <c r="C697" t="n">
+        <v>8.444670660000001e-15</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>3.17003</v>
+      </c>
+      <c r="B698" t="n">
+        <v>1.368889776e-13</v>
+      </c>
+      <c r="C698" t="n">
+        <v>9.738942480000001e-15</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>3.17043</v>
+      </c>
+      <c r="B699" t="n">
+        <v>1.92275244e-13</v>
+      </c>
+      <c r="C699" t="n">
+        <v>7.21241226e-15</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>3.17104</v>
+      </c>
+      <c r="B700" t="n">
+        <v>1.493182548e-13</v>
+      </c>
+      <c r="C700" t="n">
+        <v>9.417581280000001e-15</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>3.172</v>
+      </c>
+      <c r="B701" t="n">
+        <v>1.95754788e-13</v>
+      </c>
+      <c r="C701" t="n">
+        <v>1.083924414e-14</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>3.17279</v>
+      </c>
+      <c r="B702" t="n">
+        <v>2.70366336e-13</v>
+      </c>
+      <c r="C702" t="n">
+        <v>9.4282506e-15</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>3.17292</v>
+      </c>
+      <c r="B703" t="n">
+        <v>2.47590702e-13</v>
+      </c>
+      <c r="C703" t="n">
+        <v>1.150333722e-14</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>3.17383</v>
+      </c>
+      <c r="B704" t="n">
+        <v>3.33693396e-13</v>
+      </c>
+      <c r="C704" t="n">
+        <v>7.286504760000001e-15</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>3.17405</v>
+      </c>
+      <c r="B705" t="n">
+        <v>2.8966563e-13</v>
+      </c>
+      <c r="C705" t="n">
+        <v>1.148167818e-14</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>3.17462</v>
+      </c>
+      <c r="B706" t="n">
+        <v>3.34552068e-13</v>
+      </c>
+      <c r="C706" t="n">
+        <v>1.38746817e-14</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>3.17484</v>
+      </c>
+      <c r="B707" t="n">
+        <v>3.80289168e-13</v>
+      </c>
+      <c r="C707" t="n">
+        <v>1.045468404e-14</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>3.17509</v>
+      </c>
+      <c r="B708" t="n">
+        <v>3.21627132e-13</v>
+      </c>
+      <c r="C708" t="n">
+        <v>1.215390942e-14</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>3.17593</v>
+      </c>
+      <c r="B709" t="n">
+        <v>3.6032184e-13</v>
+      </c>
+      <c r="C709" t="n">
+        <v>1.388884338e-14</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>3.17709</v>
+      </c>
+      <c r="B710" t="n">
+        <v>4.07289276e-13</v>
+      </c>
+      <c r="C710" t="n">
+        <v>1.441785582e-14</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>3.17728</v>
+      </c>
+      <c r="B711" t="n">
+        <v>4.743570060000001e-13</v>
+      </c>
+      <c r="C711" t="n">
+        <v>1.059740622e-14</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>3.17763</v>
+      </c>
+      <c r="B712" t="n">
+        <v>4.058010180000001e-13</v>
+      </c>
+      <c r="C712" t="n">
+        <v>1.424807586e-14</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>3.17783</v>
+      </c>
+      <c r="B713" t="n">
+        <v>4.30071318e-13</v>
+      </c>
+      <c r="C713" t="n">
+        <v>1.403081262e-14</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>3.17815</v>
+      </c>
+      <c r="B714" t="n">
+        <v>4.6063107e-13</v>
+      </c>
+      <c r="C714" t="n">
+        <v>1.326061908e-14</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>3.17849</v>
+      </c>
+      <c r="B715" t="n">
+        <v>3.97094148e-13</v>
+      </c>
+      <c r="C715" t="n">
+        <v>1.421984862e-14</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>3.17886</v>
+      </c>
+      <c r="B716" t="n">
+        <v>3.41847576e-13</v>
+      </c>
+      <c r="C716" t="n">
+        <v>1.454173848e-14</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>3.17983</v>
+      </c>
+      <c r="B717" t="n">
+        <v>3.03697548e-13</v>
+      </c>
+      <c r="C717" t="n">
+        <v>1.181441358e-14</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>3.18111</v>
+      </c>
+      <c r="B718" t="n">
+        <v>2.5350048e-13</v>
+      </c>
+      <c r="C718" t="n">
+        <v>1.404736128e-14</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>3.18198</v>
+      </c>
+      <c r="B719" t="n">
+        <v>2.30361192e-13</v>
+      </c>
+      <c r="C719" t="n">
+        <v>1.217401452e-14</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>3.18299</v>
+      </c>
+      <c r="B720" t="n">
+        <v>1.9853586e-13</v>
+      </c>
+      <c r="C720" t="n">
+        <v>1.11833217e-14</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B721" t="n">
+        <v>1.68769098e-13</v>
+      </c>
+      <c r="C721" t="n">
+        <v>5.54034078e-15</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B722" t="n">
+        <v>2.38734846e-13</v>
+      </c>
+      <c r="C722" t="n">
+        <v>7.61191902e-15</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>3.18398</v>
+      </c>
+      <c r="B723" t="n">
+        <v>1.64403648e-13</v>
+      </c>
+      <c r="C723" t="n">
+        <v>1.003106718e-14</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>3.18499</v>
+      </c>
+      <c r="B724" t="n">
+        <v>1.502076852e-13</v>
+      </c>
+      <c r="C724" t="n">
+        <v>9.3392595e-15</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="B725" t="n">
+        <v>1.475103978e-13</v>
+      </c>
+      <c r="C725" t="n">
+        <v>1.046133234e-14</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>3.18704</v>
+      </c>
+      <c r="B726" t="n">
+        <v>9.69027372e-14</v>
+      </c>
+      <c r="C726" t="n">
+        <v>9.345443220000001e-15</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>3.18805</v>
+      </c>
+      <c r="B727" t="n">
+        <v>9.74911518e-14</v>
+      </c>
+      <c r="C727" t="n">
+        <v>9.0856629e-15</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>3.18892</v>
+      </c>
+      <c r="B728" t="n">
+        <v>6.95250378e-14</v>
+      </c>
+      <c r="C728" t="n">
+        <v>7.802364779999999e-15</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>3.18983</v>
+      </c>
+      <c r="B729" t="n">
+        <v>1.250269686e-13</v>
+      </c>
+      <c r="C729" t="n">
+        <v>3.16007316e-15</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>3.18993</v>
+      </c>
+      <c r="B730" t="n">
+        <v>8.99176968e-14</v>
+      </c>
+      <c r="C730" t="n">
+        <v>8.230082760000001e-15</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>3.191</v>
+      </c>
+      <c r="B731" t="n">
+        <v>7.35583932e-14</v>
+      </c>
+      <c r="C731" t="n">
+        <v>8.775884159999999e-15</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>3.19196</v>
+      </c>
+      <c r="B732" t="n">
+        <v>9.4194396e-14</v>
+      </c>
+      <c r="C732" t="n">
+        <v>4.06356912e-15</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>3.19199</v>
+      </c>
+      <c r="B733" t="n">
+        <v>8.307074880000001e-14</v>
+      </c>
+      <c r="C733" t="n">
+        <v>7.29904842e-15</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>3.19384</v>
+      </c>
+      <c r="B734" t="n">
+        <v>5.84891802e-14</v>
+      </c>
+      <c r="C734" t="n">
+        <v>6.4635894e-15</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>3.19392</v>
+      </c>
+      <c r="B735" t="n">
+        <v>7.49434824e-14</v>
+      </c>
+      <c r="C735" t="n">
+        <v>7.134106499999999e-15</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>3.1959</v>
+      </c>
+      <c r="B736" t="n">
+        <v>7.419182399999998e-14</v>
+      </c>
+      <c r="C736" t="n">
+        <v>7.14178008e-15</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>3.19699</v>
+      </c>
+      <c r="B737" t="n">
+        <v>8.12500758e-14</v>
+      </c>
+      <c r="C737" t="n">
+        <v>7.402713839999999e-15</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
         <v>3.1976</v>
       </c>
-      <c r="B607" t="n">
+      <c r="B738" t="n">
         <v>6.76393236e-14</v>
       </c>
-      <c r="C607" t="n">
+      <c r="C738" t="n">
         <v>5.699002860000001e-15</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>3.2005</v>
+      </c>
+      <c r="B739" t="n">
+        <v>6.275594700000001e-14</v>
+      </c>
+      <c r="C739" t="n">
+        <v>6.847556759999999e-15</v>
       </c>
     </row>
   </sheetData>
